--- a/data/trans_dic/P23_DUKE_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AC_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social confidencial bajo</t>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>83,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>77,39%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>88,59%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88,22%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 56,69</t>
+          <t>67,42; 94,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 28,66</t>
+          <t>74,86; 97,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 55,8</t>
+          <t>74,85; 96,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 29,53</t>
+          <t>76,06; 98,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,48; 31,61</t>
+          <t>56,77; 82,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 62,28</t>
+          <t>76,61; 96,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 39,29</t>
+          <t>64,03; 90,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 26,54</t>
+          <t>70,38; 94,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 51,07</t>
+          <t>66,69; 86,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>79,23; 94,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74,92; 91,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>79,63; 94,96</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>74,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>80,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>79,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>79,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>85,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>79,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>81,58%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 18,37</t>
+          <t>60,53; 82,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 27,53</t>
+          <t>76,22; 89,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 24,1</t>
+          <t>72,01; 86,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 22,18</t>
+          <t>72,44; 87,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 19,54</t>
+          <t>78,8; 90,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,47</t>
+          <t>81,24; 92,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 18,44</t>
+          <t>72,23; 85,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 21,68</t>
+          <t>74,74; 87,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 21,58</t>
+          <t>72,01; 84,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>80,96; 89,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74,86; 84,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>76,7; 86,09</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>68,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>80,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>86,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>79,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>77,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>80,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79,24%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,86</t>
+          <t>60,44; 77,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 16,83</t>
+          <t>72,66; 87,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 17,24</t>
+          <t>69,1; 85,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 13,79</t>
+          <t>69,8; 85,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,57</t>
+          <t>77,57; 89,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 22,18</t>
+          <t>79,92; 91,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 12,2</t>
+          <t>76,46; 88,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 13,93</t>
+          <t>73,07; 85,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 17,71</t>
+          <t>71,29; 82,08</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>79,22; 88,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75,34; 85,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>74,01; 83,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 21,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 22,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 29,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 18,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 23,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>73,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83,31%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80,56%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>82,65%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80,91%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>82,05%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>85,33%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>80,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>81,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66,22; 79,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>78,12; 87,73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75,25; 85,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>75,72; 86,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78,38; 86,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>83,06; 90,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>76,09; 84,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>77,65; 85,78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>74,33; 81,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>82,14; 87,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>77,0; 83,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>77,9; 84,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>98429</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77741</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>94610</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>150653</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>90246</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>84060</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91309</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>141576</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>188675</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>161801</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>185920</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>292230</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>79944; 111546</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66135; 85830</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80694; 103621</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>127523; 164518</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>71099; 103851</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72242; 90566</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73106; 102785</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>115136; 154548</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>162589; 211457</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>144709; 171909</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>166308; 202402</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>263760; 314540</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>311685</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>280079</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>297975</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>381717</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>381890</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>313413</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>282188</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>389810</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>693574</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>593492</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>580162</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>771527</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>252408; 343674</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>254221; 299802</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>267718; 322223</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>342458; 415318</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>355652; 406779</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>291794; 330772</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>255680; 302395</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>353492; 413673</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>625281; 734155</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>560787; 622305</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>543308; 613143</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>725357; 814153</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>222804</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>197431</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>209610</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>257887</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>352841</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>289897</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>266995</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>311998</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>575646</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>487329</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>476606</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>569885</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>196428; 250996</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>177755; 215187</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>185148; 228894</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>228821; 280462</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>326976; 375359</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>268754; 306819</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>247341; 285216</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>285977; 335820</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>532169; 612698</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>460190; 511708</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>445626; 504289</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>532250; 603802</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>543.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>632917</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>555252</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>602196</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>790257</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>824977</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>687370</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>640492</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>843385</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1457894</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1242622</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1242687</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1633642</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>569881; 681692</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>520658; 584726</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>562570; 636843</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>733153; 833658</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>782360; 861142</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>655983; 713537</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>602333; 670140</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>798177; 881774</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1381470; 1522393</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1196137; 1279670</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1185228; 1286471</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1555103; 1691649</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
